--- a/data/trans_orig/P20D2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P20D2_2023-Edad-trans_orig.xlsx
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4910</v>
+        <v>4914</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2283333847726798</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.826361824807903</v>
+        <v>0.8269625535998864</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -1218,19 +1218,19 @@
         <v>6137</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3396</v>
+        <v>3672</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8063</v>
+        <v>7989</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.6971022970416143</v>
+        <v>0.6971022970416141</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.385739978299045</v>
+        <v>0.4171256771137716</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9159618631277384</v>
+        <v>0.9074811703828383</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -1239,19 +1239,19 @@
         <v>7493</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3811</v>
+        <v>4044</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>11024</v>
+        <v>10974</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5081923237499205</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2584576476540869</v>
+        <v>0.2742434895251724</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7476236921829449</v>
+        <v>0.7442462622412759</v>
       </c>
     </row>
     <row r="13">
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7949631347246776</v>
+        <v>0.7949631347246777</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1292,16 +1292,16 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3614</v>
+        <v>3893</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.08943745118015911</v>
+        <v>0.0894374511801591</v>
       </c>
       <c r="O13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4105438409522782</v>
+        <v>0.4421946798365143</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -1310,19 +1310,19 @@
         <v>2881</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>802</v>
+        <v>832</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6713</v>
+        <v>7105</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1954196956077319</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05439635684813481</v>
+        <v>0.05644975780696572</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4552990291729714</v>
+        <v>0.4818408882654198</v>
       </c>
     </row>
     <row r="14">
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5942</v>
+        <v>4999</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.419240500323084</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1</v>
+        <v>0.8413104796993868</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -1360,19 +1360,19 @@
         <v>1879</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4685</v>
+        <v>4461</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2134602517782268</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05929505074574655</v>
+        <v>0.05936765539302082</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5322567424787329</v>
+        <v>0.5067519701075658</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -1381,19 +1381,19 @@
         <v>4370</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1577</v>
+        <v>1705</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8494</v>
+        <v>8133</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2963879806423476</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1069500203081839</v>
+        <v>0.1156270808355003</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5760483022207644</v>
+        <v>0.5515785909497383</v>
       </c>
     </row>
     <row r="15">
@@ -1485,19 +1485,19 @@
         <v>4434</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1111</v>
+        <v>1096</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9039</v>
+        <v>9139</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2507699906028366</v>
+        <v>0.2507699906028365</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06284015084871108</v>
+        <v>0.06196210532913941</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5112186753235364</v>
+        <v>0.5168750802149766</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -1506,19 +1506,19 @@
         <v>7276</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4178</v>
+        <v>4405</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10173</v>
+        <v>10484</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5036339147960079</v>
+        <v>0.5036339147960078</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2891993212631475</v>
+        <v>0.3049352288875561</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7041796950464523</v>
+        <v>0.725690155798732</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -1527,19 +1527,19 @@
         <v>11710</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6464</v>
+        <v>6846</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16609</v>
+        <v>17033</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3644775357971218</v>
+        <v>0.3644775357971217</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2011931881781592</v>
+        <v>0.2130971921316873</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5169523452301309</v>
+        <v>0.5301532149550525</v>
       </c>
     </row>
     <row r="17">
@@ -1559,16 +1559,16 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6776</v>
+        <v>6224</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.08115438731713594</v>
+        <v>0.08115438731713592</v>
       </c>
       <c r="H17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.383227260913256</v>
+        <v>0.3519988586407157</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1577,19 +1577,19 @@
         <v>1707</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4684</v>
+        <v>4540</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.118183090412661</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03193357786979546</v>
+        <v>0.03233507410687034</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3242158229248528</v>
+        <v>0.3142688978154712</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -1598,19 +1598,19 @@
         <v>3142</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>905</v>
+        <v>752</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7670</v>
+        <v>7629</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.09780540997351014</v>
+        <v>0.09780540997351013</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02815947414559208</v>
+        <v>0.02340678229383405</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2387432239356063</v>
+        <v>0.2374410795773021</v>
       </c>
     </row>
     <row r="18">
@@ -1627,19 +1627,19 @@
         <v>11812</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6382</v>
+        <v>6881</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15443</v>
+        <v>15499</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6680756220800274</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3609701809600652</v>
+        <v>0.3891744113447911</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8734149201212416</v>
+        <v>0.8766126270486562</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -1648,19 +1648,19 @@
         <v>5464</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2685</v>
+        <v>2649</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>8756</v>
+        <v>8272</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3781829947913312</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1858766768635725</v>
+        <v>0.183391929036551</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6060808983601786</v>
+        <v>0.5725560030642267</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>18</v>
@@ -1669,19 +1669,19 @@
         <v>17276</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>12334</v>
+        <v>12302</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>22809</v>
+        <v>22734</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5377170542293681</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3838968074261777</v>
+        <v>0.382896236350805</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7099477414097597</v>
+        <v>0.7076075403726764</v>
       </c>
     </row>
     <row r="19">
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3670</v>
+        <v>3287</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04057880532969289</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2057155201779712</v>
+        <v>0.1842771569823438</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -1794,19 +1794,19 @@
         <v>5182</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2596</v>
+        <v>2591</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7757</v>
+        <v>7900</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4799489059933296</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2404098240726151</v>
+        <v>0.2399695730001466</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7184798581937347</v>
+        <v>0.731700096629327</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>9</v>
@@ -1815,19 +1815,19 @@
         <v>5906</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3011</v>
+        <v>3200</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9988</v>
+        <v>10281</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2062461629710929</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1051358963751415</v>
+        <v>0.1117344445108803</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3487855229913971</v>
+        <v>0.3590203753318972</v>
       </c>
     </row>
     <row r="21">
@@ -1844,19 +1844,19 @@
         <v>2969</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>810</v>
+        <v>831</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7727</v>
+        <v>7491</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1664262599709174</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04540727313018122</v>
+        <v>0.04656049459176234</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4331435103171762</v>
+        <v>0.4199222338376537</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -1865,19 +1865,19 @@
         <v>1854</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4367</v>
+        <v>5035</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1716935681969319</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04936054223827845</v>
+        <v>0.05038316749607751</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4045076736707591</v>
+        <v>0.466378633539814</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>6</v>
@@ -1886,19 +1886,19 @@
         <v>4823</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1936</v>
+        <v>1882</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>9586</v>
+        <v>9270</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1684123328383442</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0676080569591896</v>
+        <v>0.06570942758659362</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3347563932284831</v>
+        <v>0.3237352067479533</v>
       </c>
     </row>
     <row r="22">
@@ -1915,19 +1915,19 @@
         <v>14146</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9544</v>
+        <v>9649</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16887</v>
+        <v>16958</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.7929949346993899</v>
+        <v>0.79299493469939</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5350239116684302</v>
+        <v>0.5408942661252315</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9466283149863411</v>
+        <v>0.9506396526303277</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -1936,19 +1936,19 @@
         <v>3761</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1734</v>
+        <v>1718</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6498</v>
+        <v>6341</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3483575258097385</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1606045897968132</v>
+        <v>0.1590810333419206</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6018281232507801</v>
+        <v>0.5873011948000042</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>22</v>
@@ -1957,19 +1957,19 @@
         <v>17907</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13060</v>
+        <v>12739</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>22124</v>
+        <v>21807</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6253415041905628</v>
+        <v>0.6253415041905629</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.456065218712778</v>
+        <v>0.4448530503526325</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7725973582310873</v>
+        <v>0.7615124525577031</v>
       </c>
     </row>
     <row r="23">
@@ -2061,19 +2061,19 @@
         <v>1502</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3900</v>
+        <v>4352</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09871916446358374</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0309034964914917</v>
+        <v>0.03052811896042998</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2563337784146558</v>
+        <v>0.2860119230735032</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -2082,19 +2082,19 @@
         <v>2327</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>679</v>
+        <v>653</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>4290</v>
+        <v>4263</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4235886681821607</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1236530936264028</v>
+        <v>0.1188920102365229</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7809385597072001</v>
+        <v>0.7759356073267855</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>7</v>
@@ -2103,19 +2103,19 @@
         <v>3829</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1789</v>
+        <v>1625</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>7127</v>
+        <v>6982</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1849040720499281</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0863996393760551</v>
+        <v>0.07847501701835004</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3441693602426452</v>
+        <v>0.3371370599173852</v>
       </c>
     </row>
     <row r="25">
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3077</v>
+        <v>3177</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06238363132436821</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2022343871929951</v>
+        <v>0.2088231836800509</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1764</v>
+        <v>1840</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06907844785085401</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.321147986157648</v>
+        <v>0.334878368025712</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3</v>
@@ -2174,19 +2174,19 @@
         <v>1329</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3759</v>
+        <v>3587</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06415970490787863</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01750125989672168</v>
+        <v>0.01851716519622439</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1815045996319137</v>
+        <v>0.1732179413150817</v>
       </c>
     </row>
     <row r="26">
@@ -2203,19 +2203,19 @@
         <v>12764</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>10086</v>
+        <v>9907</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>14289</v>
+        <v>14309</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8388972042120481</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6629122257445019</v>
+        <v>0.6511139700251878</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9391325888255463</v>
+        <v>0.9404633220706902</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -2224,19 +2224,19 @@
         <v>2787</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1014</v>
+        <v>1023</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>4480</v>
+        <v>4462</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.5073328839669851</v>
+        <v>0.5073328839669852</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.184591646394536</v>
+        <v>0.186197049009509</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8154963450684444</v>
+        <v>0.8122026847033118</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>24</v>
@@ -2245,19 +2245,19 @@
         <v>15551</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>11700</v>
+        <v>12331</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>17979</v>
+        <v>18122</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7509362230421932</v>
+        <v>0.7509362230421933</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5649915369724181</v>
+        <v>0.5954590559522668</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8681724177547788</v>
+        <v>0.8750825613225496</v>
       </c>
     </row>
     <row r="27">
@@ -2352,16 +2352,16 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4710</v>
+        <v>5289</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.2814123635419072</v>
+        <v>0.2814123635419073</v>
       </c>
       <c r="H28" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7129333084276251</v>
+        <v>0.8006114153750231</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>9</v>
@@ -2370,19 +2370,19 @@
         <v>5206</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2696</v>
+        <v>2651</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>7600</v>
+        <v>7753</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.4609977791239881</v>
+        <v>0.460997779123988</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2386966358734085</v>
+        <v>0.2347298871856126</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6729952750777232</v>
+        <v>0.6865353639262931</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>11</v>
@@ -2391,19 +2391,19 @@
         <v>7065</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3799</v>
+        <v>3629</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>10422</v>
+        <v>10469</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3947182880841281</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2122612381297557</v>
+        <v>0.2027280824326108</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5822248916396363</v>
+        <v>0.5848404677981615</v>
       </c>
     </row>
     <row r="29">
@@ -2423,16 +2423,16 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3013</v>
+        <v>2743</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.1062712312128735</v>
+        <v>0.1062712312128736</v>
       </c>
       <c r="H29" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4561054271520485</v>
+        <v>0.4152110871070303</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -2441,19 +2441,19 @@
         <v>1213</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3232</v>
+        <v>3192</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1074361238213752</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02913004351206806</v>
+        <v>0.02738806511583284</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.286211358987544</v>
+        <v>0.2826698390370945</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -2462,19 +2462,19 @@
         <v>1915</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>618</v>
+        <v>492</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4425</v>
+        <v>4837</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1070061975439137</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0345087468398887</v>
+        <v>0.02749866420906317</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2471830413310463</v>
+        <v>0.2702046365864553</v>
       </c>
     </row>
     <row r="30">
@@ -2491,19 +2491,19 @@
         <v>4045</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1612</v>
+        <v>1511</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6040</v>
+        <v>6033</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.6123164052452191</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2440835715790047</v>
+        <v>0.2287800821073509</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9143833254954843</v>
+        <v>0.9132301493525499</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>9</v>
@@ -2512,19 +2512,19 @@
         <v>4874</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2775</v>
+        <v>2453</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7838</v>
+        <v>7512</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.4315660970546366</v>
+        <v>0.4315660970546367</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2457000516006406</v>
+        <v>0.2171831040488889</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6940346141666778</v>
+        <v>0.6651630962046381</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>16</v>
@@ -2533,19 +2533,19 @@
         <v>8919</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>5760</v>
+        <v>5783</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>12502</v>
+        <v>12235</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.4982755143719582</v>
+        <v>0.4982755143719583</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.321774972544643</v>
+        <v>0.3230715407507205</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6984618033009256</v>
+        <v>0.6835437754133206</v>
       </c>
     </row>
     <row r="31">
@@ -2637,19 +2637,19 @@
         <v>11077</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>6160</v>
+        <v>5863</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>18267</v>
+        <v>17611</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1624177337725285</v>
+        <v>0.1624177337725286</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09032338140100926</v>
+        <v>0.08596718803091875</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2678354941045267</v>
+        <v>0.2582119814409502</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>41</v>
@@ -2658,19 +2658,19 @@
         <v>28019</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>20766</v>
+        <v>20281</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>34585</v>
+        <v>34707</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4891199644293209</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3625080048591866</v>
+        <v>0.3540381591525344</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6037370297522725</v>
+        <v>0.6058695859242516</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>53</v>
@@ -2679,19 +2679,19 @@
         <v>39096</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>30124</v>
+        <v>30558</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>49555</v>
+        <v>49076</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3115574140964154</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2400534201892654</v>
+        <v>0.2435163922212925</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3949002054941945</v>
+        <v>0.3910843180387594</v>
       </c>
     </row>
     <row r="33">
@@ -2708,19 +2708,19 @@
         <v>8149</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>3747</v>
+        <v>4094</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>14639</v>
+        <v>14401</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1194840637806505</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.05494459270328723</v>
+        <v>0.06003094857060706</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2146403383881753</v>
+        <v>0.2111571919109093</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>11</v>
@@ -2729,19 +2729,19 @@
         <v>5941</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>3008</v>
+        <v>3141</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>10263</v>
+        <v>10275</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.1037174251262462</v>
+        <v>0.1037174251262463</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.0525078914572854</v>
+        <v>0.05483980713601801</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1791572139125474</v>
+        <v>0.1793682416998463</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>20</v>
@@ -2750,19 +2750,19 @@
         <v>14091</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>8659</v>
+        <v>8505</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>21733</v>
+        <v>22444</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1122865878283962</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.06899956204097517</v>
+        <v>0.06777428436978089</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1731913072515435</v>
+        <v>0.178852999779441</v>
       </c>
     </row>
     <row r="34">
@@ -2779,19 +2779,19 @@
         <v>48976</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>40858</v>
+        <v>41639</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>55088</v>
+        <v>55572</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.718098202446821</v>
+        <v>0.7180982024468212</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5990664494158288</v>
+        <v>0.6105251459813292</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.8077131969672614</v>
+        <v>0.8148163878618275</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>33</v>
@@ -2800,19 +2800,19 @@
         <v>23324</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>16400</v>
+        <v>17258</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>31098</v>
+        <v>31720</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.4071626104444326</v>
+        <v>0.4071626104444327</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2862850766175092</v>
+        <v>0.301272290665611</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5428713797720214</v>
+        <v>0.5537174241716604</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>89</v>
@@ -2821,19 +2821,19 @@
         <v>72300</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>61585</v>
+        <v>61630</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>82721</v>
+        <v>82714</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.5761559980751885</v>
+        <v>0.5761559980751886</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4907668834195131</v>
+        <v>0.4911257034750621</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6591974493830871</v>
+        <v>0.6591430333921242</v>
       </c>
     </row>
     <row r="35">
